--- a/latin-parallel/texts-english/=progress-english.xlsx
+++ b/latin-parallel/texts-english/=progress-english.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Evan\Documents\santissimo-nome\latin-parallel\psalms-english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Evan\Documents\santissimo-nome\latin-parallel\texts-english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10451C1A-4EB5-4B3A-83CD-64BB3BC4EFAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22B536CC-0DF6-464A-A2D7-B2081DD5E59C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13944" yWindow="480" windowWidth="8964" windowHeight="11844" xr2:uid="{C023B4B4-53A5-4D58-9310-1C65202DBCED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{C023B4B4-53A5-4D58-9310-1C65202DBCED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1181,6 +1181,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1189,9 +1192,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1509,8 +1509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A34D1D9-374D-4536-909F-DC34292C7F35}">
   <dimension ref="A1:D124"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1522,12 +1522,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="5"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="6"/>
     </row>
     <row r="2" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1544,72 +1544,72 @@
       </c>
     </row>
     <row r="3" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="3" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" s="3" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" s="3" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+      <c r="A7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -1670,139 +1670,139 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" s="3" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C13" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D13" s="3" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C15" s="2" t="s">
+      <c r="C15" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
+      <c r="A16" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C16" s="2" t="s">
+      <c r="C16" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="3" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="2" t="s">
+      <c r="C17" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" s="3" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="2" t="s">
+      <c r="A18" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" s="3" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
+      <c r="A19" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="C19" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="2" t="s">
+      <c r="A20" s="3" t="s">
         <v>73</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="2" t="s">
+      <c r="C20" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="3" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C21" s="2" t="s">
+      <c r="C21" s="3" t="s">
         <v>79</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -1950,12 +1950,12 @@
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-      <c r="D32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="6"/>
     </row>
     <row r="33" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
@@ -2378,12 +2378,12 @@
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B63" s="4"/>
-      <c r="C63" s="4"/>
-      <c r="D63" s="5"/>
+      <c r="B63" s="5"/>
+      <c r="C63" s="5"/>
+      <c r="D63" s="6"/>
     </row>
     <row r="64" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
@@ -2792,12 +2792,12 @@
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A93" s="3" t="s">
+      <c r="A93" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B93" s="4"/>
-      <c r="C93" s="4"/>
-      <c r="D93" s="5"/>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
+      <c r="D93" s="6"/>
     </row>
     <row r="94" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
